--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang3/03.XNBH/XNBH_27032024_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang3/03.XNBH/XNBH_27032024_LapDat.xlsx
@@ -134,7 +134,7 @@
     <t>Phần cứng</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hà Nội, ngày 27 tháng 03 Năm 2024</t>
+    <t xml:space="preserve"> Hà Nội, ngày 28 tháng 03 Năm 2024</t>
   </si>
 </sst>
 </file>
@@ -518,6 +518,81 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,81 +607,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -968,7 +968,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1053,39 +1053,39 @@
       <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1095,13 +1095,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1111,15 +1111,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -1157,7 +1157,7 @@
       <c r="B12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="29"/>
@@ -1192,49 +1192,49 @@
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="35"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="38"/>
+      <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
@@ -1274,47 +1274,35 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="36"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="15"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A1:C4"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H21:I21"/>
@@ -1325,6 +1313,18 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
